--- a/protein/input_prot/pr1_weights.xlsx
+++ b/protein/input_prot/pr1_weights.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trevo\OneDrive\Documents\GitHub\TEdissy_analysis\protein\input_prot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23012218\Desktop\TEdissy_analysis\protein\input_prot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C487599-2B26-4274-BB38-329EB97337F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB386A2E-A36C-4AC9-A8E8-965469691D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -650,9 +650,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -943,13 +940,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="127" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -966,7 +966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -980,10 +980,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -997,10 +997,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1014,10 +1014,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1030,11 +1030,11 @@
       <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="7">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1047,11 +1047,11 @@
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1064,11 +1064,11 @@
       <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="7">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1081,11 +1081,11 @@
       <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1098,11 +1098,11 @@
       <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="7">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1115,11 +1115,11 @@
       <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1133,10 +1133,10 @@
         <v>20</v>
       </c>
       <c r="E11" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1150,10 +1150,10 @@
         <v>22</v>
       </c>
       <c r="E12" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1167,10 +1167,10 @@
         <v>24</v>
       </c>
       <c r="E13" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1184,10 +1184,10 @@
         <v>32</v>
       </c>
       <c r="E14" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -1200,11 +1200,11 @@
       <c r="D15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="7">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
@@ -1217,11 +1217,11 @@
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="7">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -1235,10 +1235,10 @@
         <v>39</v>
       </c>
       <c r="E17" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -1252,10 +1252,10 @@
         <v>41</v>
       </c>
       <c r="E18" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -1269,10 +1269,10 @@
         <v>43</v>
       </c>
       <c r="E19" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
@@ -1286,10 +1286,10 @@
         <v>46</v>
       </c>
       <c r="E20" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -1303,10 +1303,10 @@
         <v>48</v>
       </c>
       <c r="E21" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1320,10 +1320,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -1337,10 +1337,10 @@
         <v>53</v>
       </c>
       <c r="E23" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
@@ -1354,10 +1354,10 @@
         <v>54</v>
       </c>
       <c r="E24" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1371,10 +1371,10 @@
         <v>55</v>
       </c>
       <c r="E25" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>56</v>
       </c>
@@ -1387,11 +1387,11 @@
       <c r="D26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="7">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E26" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
@@ -1404,11 +1404,11 @@
       <c r="D27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="7">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
@@ -1421,11 +1421,11 @@
       <c r="D28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="7">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E28" s="4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>62</v>
       </c>
@@ -1439,10 +1439,10 @@
         <v>64</v>
       </c>
       <c r="E29" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
@@ -1456,10 +1456,10 @@
         <v>66</v>
       </c>
       <c r="E30" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>62</v>
       </c>
@@ -1473,10 +1473,10 @@
         <v>68</v>
       </c>
       <c r="E31" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>69</v>
       </c>
@@ -1490,10 +1490,10 @@
         <v>71</v>
       </c>
       <c r="E32" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -1507,10 +1507,10 @@
         <v>73</v>
       </c>
       <c r="E33" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>69</v>
       </c>
@@ -1524,10 +1524,10 @@
         <v>123</v>
       </c>
       <c r="E34" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -1541,10 +1541,10 @@
         <v>125</v>
       </c>
       <c r="E35" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -1558,10 +1558,10 @@
         <v>128</v>
       </c>
       <c r="E36" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>75</v>
       </c>
@@ -1575,10 +1575,10 @@
         <v>130</v>
       </c>
       <c r="E37" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>79</v>
       </c>
@@ -1592,10 +1592,10 @@
         <v>132</v>
       </c>
       <c r="E38" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>79</v>
       </c>
@@ -1609,10 +1609,10 @@
         <v>135</v>
       </c>
       <c r="E39" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
@@ -1626,10 +1626,10 @@
         <v>137</v>
       </c>
       <c r="E40" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>83</v>
       </c>
@@ -1643,10 +1643,10 @@
         <v>139</v>
       </c>
       <c r="E41" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>83</v>
       </c>
@@ -1660,10 +1660,10 @@
         <v>165</v>
       </c>
       <c r="E42" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>83</v>
       </c>
@@ -1677,10 +1677,10 @@
         <v>87</v>
       </c>
       <c r="E43" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -1694,10 +1694,10 @@
         <v>90</v>
       </c>
       <c r="E44" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
@@ -1711,10 +1711,10 @@
         <v>92</v>
       </c>
       <c r="E45" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>88</v>
       </c>
@@ -1728,10 +1728,10 @@
         <v>94</v>
       </c>
       <c r="E46" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>95</v>
       </c>
@@ -1745,10 +1745,10 @@
         <v>97</v>
       </c>
       <c r="E47" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
@@ -1762,10 +1762,10 @@
         <v>99</v>
       </c>
       <c r="E48" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>95</v>
       </c>
@@ -1779,10 +1779,10 @@
         <v>100</v>
       </c>
       <c r="E49" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>101</v>
       </c>
@@ -1796,10 +1796,10 @@
         <v>102</v>
       </c>
       <c r="E50" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>101</v>
       </c>
@@ -1813,10 +1813,10 @@
         <v>103</v>
       </c>
       <c r="E51" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>101</v>
       </c>
@@ -1830,10 +1830,10 @@
         <v>104</v>
       </c>
       <c r="E52" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>105</v>
       </c>
@@ -1847,10 +1847,10 @@
         <v>106</v>
       </c>
       <c r="E53" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>105</v>
       </c>
@@ -1864,10 +1864,10 @@
         <v>107</v>
       </c>
       <c r="E54" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>105</v>
       </c>
@@ -1881,10 +1881,10 @@
         <v>108</v>
       </c>
       <c r="E55" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>109</v>
       </c>
@@ -1898,10 +1898,10 @@
         <v>110</v>
       </c>
       <c r="E56" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>109</v>
       </c>
@@ -1915,10 +1915,10 @@
         <v>111</v>
       </c>
       <c r="E57" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>109</v>
       </c>
@@ -1932,10 +1932,10 @@
         <v>112</v>
       </c>
       <c r="E58" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>113</v>
       </c>
@@ -1949,10 +1949,10 @@
         <v>115</v>
       </c>
       <c r="E59" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>113</v>
       </c>
@@ -1966,10 +1966,10 @@
         <v>117</v>
       </c>
       <c r="E60" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>113</v>
       </c>
@@ -1983,10 +1983,10 @@
         <v>119</v>
       </c>
       <c r="E61" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>120</v>
       </c>
@@ -2000,10 +2000,10 @@
         <v>122</v>
       </c>
       <c r="E62" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>120</v>
       </c>
@@ -2017,10 +2017,10 @@
         <v>124</v>
       </c>
       <c r="E63" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>120</v>
       </c>
@@ -2034,10 +2034,10 @@
         <v>126</v>
       </c>
       <c r="E64" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>127</v>
       </c>
@@ -2051,10 +2051,10 @@
         <v>129</v>
       </c>
       <c r="E65" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>127</v>
       </c>
@@ -2068,10 +2068,10 @@
         <v>131</v>
       </c>
       <c r="E66" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>127</v>
       </c>
@@ -2085,10 +2085,10 @@
         <v>133</v>
       </c>
       <c r="E67" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
@@ -2102,10 +2102,10 @@
         <v>136</v>
       </c>
       <c r="E68" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>134</v>
       </c>
@@ -2119,10 +2119,10 @@
         <v>138</v>
       </c>
       <c r="E69" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>134</v>
       </c>
@@ -2136,10 +2136,10 @@
         <v>140</v>
       </c>
       <c r="E70" s="4">
-        <v>45784</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>141</v>
       </c>
@@ -2149,13 +2149,13 @@
         <v>142</v>
       </c>
       <c r="E71" s="4">
-        <v>45784</v>
-      </c>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-    </row>
-    <row r="72" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="8" t="s">
+        <v>45815</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+    </row>
+    <row r="72" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B72" s="2"/>
@@ -2164,13 +2164,13 @@
         <v>144</v>
       </c>
       <c r="E72" s="4">
-        <v>45784</v>
-      </c>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-    </row>
-    <row r="73" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="8" t="s">
+        <v>45815</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+    </row>
+    <row r="73" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B73" s="2"/>
@@ -2179,13 +2179,13 @@
         <v>146</v>
       </c>
       <c r="E73" s="4">
-        <v>45784</v>
-      </c>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-    </row>
-    <row r="74" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="8" t="s">
+        <v>45815</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+    </row>
+    <row r="74" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B74" s="2"/>
@@ -2194,13 +2194,13 @@
         <v>148</v>
       </c>
       <c r="E74" s="4">
-        <v>45784</v>
-      </c>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-    </row>
-    <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="8" t="s">
+        <v>45815</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+    </row>
+    <row r="75" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B75" s="2"/>
@@ -2209,13 +2209,13 @@
         <v>150</v>
       </c>
       <c r="E75" s="4">
-        <v>45784</v>
-      </c>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-    </row>
-    <row r="76" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="8" t="s">
+        <v>45815</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+    </row>
+    <row r="76" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B76" s="2"/>
@@ -2224,13 +2224,13 @@
         <v>152</v>
       </c>
       <c r="E76" s="4">
-        <v>45784</v>
-      </c>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-    </row>
-    <row r="77" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="8" t="s">
+        <v>45815</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+    </row>
+    <row r="77" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B77" s="2"/>
@@ -2239,13 +2239,13 @@
         <v>154</v>
       </c>
       <c r="E77" s="4">
-        <v>45784</v>
-      </c>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-    </row>
-    <row r="78" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="8" t="s">
+        <v>45815</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+    </row>
+    <row r="78" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B78" s="2"/>
@@ -2254,13 +2254,13 @@
         <v>156</v>
       </c>
       <c r="E78" s="4">
-        <v>45784</v>
-      </c>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-    </row>
-    <row r="79" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="8" t="s">
+        <v>45815</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+    </row>
+    <row r="79" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B79" s="2"/>
@@ -2269,13 +2269,13 @@
         <v>158</v>
       </c>
       <c r="E79" s="4">
-        <v>45784</v>
-      </c>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-    </row>
-    <row r="80" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="8" t="s">
+        <v>45815</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8"/>
+    </row>
+    <row r="80" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B80" s="2"/>
@@ -2284,12 +2284,12 @@
         <v>160</v>
       </c>
       <c r="E80" s="4">
-        <v>45784</v>
-      </c>
-      <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
-    </row>
-    <row r="81" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45815</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+    </row>
+    <row r="81" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>161</v>
       </c>
@@ -2299,13 +2299,14 @@
         <v>162</v>
       </c>
       <c r="E81" s="4">
-        <v>45784</v>
-      </c>
-      <c r="O81" s="9"/>
-      <c r="P81" s="9"/>
+        <v>45815</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>